--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_381__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_381__Reeval_Halton_Modell_1.2.xlsx
@@ -5987,13 +5987,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>95.52540588378906</c:v>
+                  <c:v>95.52539825439453</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.2474283277988434</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.96521759033203</c:v>
+                  <c:v>71.96522521972656</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-0.2474302053451538</c:v>
@@ -6005,7 +6005,7 @@
                   <c:v>94.11743927001953</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.38606262207031</c:v>
+                  <c:v>92.38607025146484</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.2474310100078583</c:v>
@@ -6017,13 +6017,13 @@
                   <c:v>92.14592742919922</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91.39012145996094</c:v>
+                  <c:v>91.39011383056641</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.42737770080566</c:v>
+                  <c:v>15.42738628387451</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.12551116943359</c:v>
+                  <c:v>90.12551879882812</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>92.60630798339844</c:v>
@@ -6035,16 +6035,16 @@
                   <c:v>-0.2474474161863327</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>90.97824096679688</c:v>
+                  <c:v>90.97824859619141</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-0.2474282532930374</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>83.74129486083984</c:v>
+                  <c:v>83.74130249023438</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48.10434722900391</c:v>
+                  <c:v>48.10435104370117</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>83.61827087402344</c:v>
@@ -6074,10 +6074,10 @@
                   <c:v>95.16452789306641</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>97.35779571533203</c:v>
+                  <c:v>97.3577880859375</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>46.42682647705078</c:v>
+                  <c:v>46.42683792114258</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>53.54807281494141</c:v>
@@ -6086,25 +6086,25 @@
                   <c:v>-0.2474358826875687</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33.95823669433594</c:v>
+                  <c:v>33.9582405090332</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70.77536773681641</c:v>
+                  <c:v>70.77537536621094</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-0.2474458962678909</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>75.18292999267578</c:v>
+                  <c:v>75.18294525146484</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>58.06559371948242</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>96.38393402099609</c:v>
+                  <c:v>96.38392639160156</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>31.59768867492676</c:v>
+                  <c:v>31.59768676757812</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>60.83713531494141</c:v>
@@ -6116,10 +6116,10 @@
                   <c:v>90.42298126220703</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>65.80052947998047</c:v>
+                  <c:v>65.800537109375</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>21.98416709899902</c:v>
+                  <c:v>21.98416900634766</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>92.95539855957031</c:v>
@@ -6131,10 +6131,10 @@
                   <c:v>-0.2474282532930374</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>86.03395843505859</c:v>
+                  <c:v>86.03394317626953</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>96.97190093994141</c:v>
+                  <c:v>96.97189331054688</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>17.43148231506348</c:v>
@@ -6155,13 +6155,13 @@
                   <c:v>78.36082458496094</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>30.76992416381836</c:v>
+                  <c:v>30.76992034912109</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>-0.2474433183670044</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>95.91858673095703</c:v>
+                  <c:v>95.91859436035156</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>-0.2474392056465149</c:v>
@@ -6173,19 +6173,19 @@
                   <c:v>-0.2474476397037506</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>79.92295837402344</c:v>
+                  <c:v>79.92296600341797</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>92.10478973388672</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>50.59909820556641</c:v>
+                  <c:v>50.59909439086914</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>-0.2474431246519089</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>92.57525634765625</c:v>
+                  <c:v>92.57527160644531</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>80.91447448730469</c:v>
@@ -6197,16 +6197,16 @@
                   <c:v>8.650797843933105</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>93.69176483154297</c:v>
+                  <c:v>93.69175720214844</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>92.81665802001953</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>94.29589080810547</c:v>
+                  <c:v>94.2958984375</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>98.11293029785156</c:v>
+                  <c:v>98.1129150390625</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>-0.2474282532930374</c:v>
@@ -6230,7 +6230,7 @@
                   <c:v>90.66774749755859</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>95.39412689208984</c:v>
+                  <c:v>95.39414215087891</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>-0.2474428117275238</c:v>
@@ -6251,10 +6251,10 @@
                   <c:v>16.59025001525879</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>93.73691558837891</c:v>
+                  <c:v>93.73690795898438</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>70.28446960449219</c:v>
+                  <c:v>70.28447723388672</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>-0.2474348992109299</c:v>
@@ -6269,7 +6269,7 @@
                   <c:v>-0.2474481016397476</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>89.64017486572266</c:v>
+                  <c:v>89.64018249511719</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>-0.2474375218153</c:v>
@@ -6278,7 +6278,7 @@
                   <c:v>93.56950378417969</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>24.92803192138672</c:v>
+                  <c:v>24.92802810668945</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>66.7972412109375</c:v>
@@ -6979,7 +6979,7 @@
         <v>96.2991</v>
       </c>
       <c r="F2">
-        <v>95.52540588378906</v>
+        <v>95.52539825439453</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7043,7 +7043,7 @@
         <v>88.0701</v>
       </c>
       <c r="F4">
-        <v>71.96521759033203</v>
+        <v>71.96522521972656</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -7171,7 +7171,7 @@
         <v>97.5325</v>
       </c>
       <c r="F8">
-        <v>92.38606262207031</v>
+        <v>92.38607025146484</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>93.5943</v>
       </c>
       <c r="F12">
-        <v>91.39012145996094</v>
+        <v>91.39011383056641</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>15.42737770080566</v>
+        <v>15.42738628387451</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>97.7777</v>
       </c>
       <c r="F14">
-        <v>90.12551116943359</v>
+        <v>90.12551879882812</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>75.7182</v>
       </c>
       <c r="F18">
-        <v>90.97824096679688</v>
+        <v>90.97824859619141</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>70.7677</v>
       </c>
       <c r="F20">
-        <v>83.74129486083984</v>
+        <v>83.74130249023438</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.10434722900391</v>
+        <v>48.10435104370117</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>94.28400000000001</v>
       </c>
       <c r="F31">
-        <v>97.35779571533203</v>
+        <v>97.3577880859375</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>86.7184</v>
       </c>
       <c r="F32">
-        <v>46.42682647705078</v>
+        <v>46.42683792114258</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>33.95823669433594</v>
+        <v>33.9582405090332</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>94.44029999999999</v>
       </c>
       <c r="F36">
-        <v>70.77536773681641</v>
+        <v>70.77537536621094</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>86.19970000000001</v>
       </c>
       <c r="F38">
-        <v>75.18292999267578</v>
+        <v>75.18294525146484</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>97.63800000000001</v>
       </c>
       <c r="F40">
-        <v>96.38393402099609</v>
+        <v>96.38392639160156</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>36.7921</v>
       </c>
       <c r="F41">
-        <v>31.59768867492676</v>
+        <v>31.59768676757812</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>65.80052947998047</v>
+        <v>65.800537109375</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>90.426</v>
       </c>
       <c r="F46">
-        <v>21.98416709899902</v>
+        <v>21.98416900634766</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>60.2136</v>
       </c>
       <c r="F50">
-        <v>86.03395843505859</v>
+        <v>86.03394317626953</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>97.8107</v>
       </c>
       <c r="F51">
-        <v>96.97190093994141</v>
+        <v>96.97189331054688</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>27.5735</v>
       </c>
       <c r="F58">
-        <v>30.76992416381836</v>
+        <v>30.76992034912109</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>95.5249</v>
       </c>
       <c r="F60">
-        <v>95.91858673095703</v>
+        <v>95.91859436035156</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>72.6528</v>
       </c>
       <c r="F64">
-        <v>79.92295837402344</v>
+        <v>79.92296600341797</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>39.3514</v>
       </c>
       <c r="F66">
-        <v>50.59909820556641</v>
+        <v>50.59909439086914</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>94.0749</v>
       </c>
       <c r="F68">
-        <v>92.57525634765625</v>
+        <v>92.57527160644531</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>94.26949999999999</v>
       </c>
       <c r="F72">
-        <v>93.69176483154297</v>
+        <v>93.69175720214844</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>95.4374</v>
       </c>
       <c r="F74">
-        <v>94.29589080810547</v>
+        <v>94.2958984375</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>98.0594</v>
       </c>
       <c r="F75">
-        <v>98.11293029785156</v>
+        <v>98.1129150390625</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>97.5809</v>
       </c>
       <c r="F83">
-        <v>95.39412689208984</v>
+        <v>95.39414215087891</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>93.3051</v>
       </c>
       <c r="F90">
-        <v>93.73691558837891</v>
+        <v>93.73690795898438</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>75.5564</v>
       </c>
       <c r="F91">
-        <v>70.28446960449219</v>
+        <v>70.28447723388672</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>92.05110000000001</v>
       </c>
       <c r="F96">
-        <v>89.64017486572266</v>
+        <v>89.64018249511719</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>13.7923</v>
       </c>
       <c r="F99">
-        <v>24.92803192138672</v>
+        <v>24.92802810668945</v>
       </c>
     </row>
     <row r="100" spans="1:6">
